--- a/database/industries/kashi/kehafez/income/quarterly/rial.xlsx
+++ b/database/industries/kashi/kehafez/income/quarterly/rial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kehafez\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80396E9-908B-4E71-A396-B9803DAE62DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0979BF83-AA6F-48F1-9E5B-4A963267F3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کحافظ-کاشی‌ وسرامیک‌ حافظ‌</t>
@@ -37,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,37 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-04-29 (2)</t>
-  </si>
-  <si>
-    <t>1400-08-30 (6)</t>
-  </si>
-  <si>
-    <t>1400-11-05 (3)</t>
-  </si>
-  <si>
-    <t>1401-04-22 (9)</t>
-  </si>
-  <si>
-    <t>1401-05-05 (2)</t>
-  </si>
-  <si>
-    <t>1401-08-10 (3)</t>
-  </si>
-  <si>
-    <t>1400-11-05</t>
-  </si>
-  <si>
-    <t>1401-08-10 (5)</t>
+    <t>1401-11-01 (2)</t>
+  </si>
+  <si>
+    <t>1401-11-01 (8)</t>
   </si>
   <si>
     <t>1401-05-05</t>
   </si>
   <si>
-    <t>1401-08-10</t>
+    <t>1401-10-10 (3)</t>
+  </si>
+  <si>
+    <t>1401-11-01</t>
   </si>
   <si>
     <t>فروش</t>
@@ -615,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,14 +593,12 @@
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -638,13 +606,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -654,13 +617,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -670,13 +628,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -684,13 +637,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -700,13 +648,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -716,13 +659,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -730,13 +668,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -756,59 +689,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -816,159 +719,94 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>312562</v>
+        <v>1078860</v>
       </c>
       <c r="E11" s="13">
-        <v>560992</v>
+        <v>1483266</v>
       </c>
       <c r="F11" s="13">
-        <v>750320</v>
+        <v>1903632</v>
       </c>
       <c r="G11" s="13">
-        <v>722753</v>
+        <v>3112367</v>
       </c>
       <c r="H11" s="13">
-        <v>807734</v>
-      </c>
-      <c r="I11" s="13">
-        <v>1108503</v>
-      </c>
-      <c r="J11" s="13">
-        <v>1078860</v>
-      </c>
-      <c r="K11" s="13">
-        <v>1483266</v>
-      </c>
-      <c r="L11" s="13">
-        <v>1903632</v>
-      </c>
-      <c r="M11" s="13">
-        <v>3112499</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3188078</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-272114</v>
+        <v>-619254</v>
       </c>
       <c r="E12" s="11">
-        <v>-389089</v>
+        <v>-761642</v>
       </c>
       <c r="F12" s="11">
-        <v>-482632</v>
+        <v>-1136800</v>
       </c>
       <c r="G12" s="11">
-        <v>-452361</v>
+        <v>-1657837</v>
       </c>
       <c r="H12" s="11">
-        <v>-457104</v>
-      </c>
-      <c r="I12" s="11">
-        <v>-708691</v>
-      </c>
-      <c r="J12" s="11">
-        <v>-619254</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-761642</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-1136800</v>
-      </c>
-      <c r="M12" s="11">
-        <v>-1601860</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-1657608</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>40448</v>
+        <v>459606</v>
       </c>
       <c r="E13" s="15">
-        <v>171903</v>
+        <v>721624</v>
       </c>
       <c r="F13" s="15">
-        <v>267688</v>
+        <v>766832</v>
       </c>
       <c r="G13" s="15">
-        <v>270392</v>
+        <v>1454530</v>
       </c>
       <c r="H13" s="15">
-        <v>350630</v>
-      </c>
-      <c r="I13" s="15">
-        <v>399812</v>
-      </c>
-      <c r="J13" s="15">
-        <v>459606</v>
-      </c>
-      <c r="K13" s="15">
-        <v>721624</v>
-      </c>
-      <c r="L13" s="15">
-        <v>766832</v>
-      </c>
-      <c r="M13" s="15">
-        <v>1510639</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1530470</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-3771</v>
+        <v>-21366</v>
       </c>
       <c r="E14" s="11">
-        <v>-18924</v>
+        <v>-55673</v>
       </c>
       <c r="F14" s="11">
-        <v>-16690</v>
+        <v>-22360</v>
       </c>
       <c r="G14" s="11">
-        <v>-23073</v>
+        <v>-83991</v>
       </c>
       <c r="H14" s="11">
-        <v>-22232</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-20908</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-21366</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-55673</v>
-      </c>
-      <c r="L14" s="11">
-        <v>-22360</v>
-      </c>
-      <c r="M14" s="11">
-        <v>-80393</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-214651</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -986,277 +824,157 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <v>0</v>
-      </c>
-      <c r="M15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>18273</v>
+        <v>7288</v>
       </c>
       <c r="E16" s="11">
-        <v>-15752</v>
+        <v>-64132</v>
       </c>
       <c r="F16" s="11">
-        <v>-20614</v>
+        <v>-12556</v>
       </c>
       <c r="G16" s="11">
-        <v>-29004</v>
+        <v>20545</v>
       </c>
       <c r="H16" s="11">
-        <v>-13307</v>
-      </c>
-      <c r="I16" s="11">
-        <v>11491</v>
-      </c>
-      <c r="J16" s="11">
-        <v>7288</v>
-      </c>
-      <c r="K16" s="11">
-        <v>-64132</v>
-      </c>
-      <c r="L16" s="11">
-        <v>-12556</v>
-      </c>
-      <c r="M16" s="11">
-        <v>6447</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-46701</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>54950</v>
+        <v>445528</v>
       </c>
       <c r="E17" s="15">
-        <v>137227</v>
+        <v>601819</v>
       </c>
       <c r="F17" s="15">
-        <v>230384</v>
+        <v>731916</v>
       </c>
       <c r="G17" s="15">
-        <v>218315</v>
+        <v>1391084</v>
       </c>
       <c r="H17" s="15">
-        <v>315091</v>
-      </c>
-      <c r="I17" s="15">
-        <v>390395</v>
-      </c>
-      <c r="J17" s="15">
-        <v>445528</v>
-      </c>
-      <c r="K17" s="15">
-        <v>601819</v>
-      </c>
-      <c r="L17" s="15">
-        <v>731916</v>
-      </c>
-      <c r="M17" s="15">
-        <v>1436693</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1269118</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-4337</v>
+        <v>-10592</v>
       </c>
       <c r="E18" s="11">
-        <v>-9997</v>
+        <v>-27778</v>
       </c>
       <c r="F18" s="11">
-        <v>-9256</v>
+        <v>-16279</v>
       </c>
       <c r="G18" s="11">
-        <v>3011</v>
+        <v>-94374</v>
       </c>
       <c r="H18" s="11">
-        <v>-5655</v>
-      </c>
-      <c r="I18" s="11">
-        <v>-9807</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-10592</v>
-      </c>
-      <c r="K18" s="11">
-        <v>-27778</v>
-      </c>
-      <c r="L18" s="11">
-        <v>-16279</v>
-      </c>
-      <c r="M18" s="11">
-        <v>-94374</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-117832</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>4637</v>
+        <v>-15001</v>
       </c>
       <c r="E19" s="13">
-        <v>202017</v>
+        <v>142564</v>
       </c>
       <c r="F19" s="13">
-        <v>3926</v>
+        <v>19757</v>
       </c>
       <c r="G19" s="13">
-        <v>-41280</v>
+        <v>13826</v>
       </c>
       <c r="H19" s="13">
-        <v>14163</v>
-      </c>
-      <c r="I19" s="13">
-        <v>838</v>
-      </c>
-      <c r="J19" s="13">
-        <v>1540</v>
-      </c>
-      <c r="K19" s="13">
-        <v>142564</v>
-      </c>
-      <c r="L19" s="13">
-        <v>19757</v>
-      </c>
-      <c r="M19" s="13">
-        <v>27924</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60169</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>55250</v>
+        <v>419935</v>
       </c>
       <c r="E20" s="17">
-        <v>329247</v>
+        <v>716605</v>
       </c>
       <c r="F20" s="17">
-        <v>225054</v>
+        <v>735394</v>
       </c>
       <c r="G20" s="17">
-        <v>180046</v>
+        <v>1310536</v>
       </c>
       <c r="H20" s="17">
-        <v>323599</v>
-      </c>
-      <c r="I20" s="17">
-        <v>381426</v>
-      </c>
-      <c r="J20" s="17">
-        <v>436476</v>
-      </c>
-      <c r="K20" s="17">
-        <v>716605</v>
-      </c>
-      <c r="L20" s="17">
-        <v>735394</v>
-      </c>
-      <c r="M20" s="17">
-        <v>1370243</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1211455</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>0</v>
+        <v>-52878</v>
       </c>
       <c r="E21" s="13">
-        <v>-71496</v>
+        <v>147193</v>
       </c>
       <c r="F21" s="13">
-        <v>71496</v>
+        <v>-73539</v>
       </c>
       <c r="G21" s="13">
-        <v>-85675</v>
+        <v>-2095</v>
       </c>
       <c r="H21" s="13">
-        <v>0</v>
-      </c>
-      <c r="I21" s="13">
-        <v>-110831</v>
-      </c>
-      <c r="J21" s="13">
-        <v>-52878</v>
-      </c>
-      <c r="K21" s="13">
-        <v>147193</v>
-      </c>
-      <c r="L21" s="13">
-        <v>-73539</v>
-      </c>
-      <c r="M21" s="13">
-        <v>41062</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-36990</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>55250</v>
+        <v>367057</v>
       </c>
       <c r="E22" s="17">
-        <v>257751</v>
+        <v>863798</v>
       </c>
       <c r="F22" s="17">
-        <v>296550</v>
+        <v>661855</v>
       </c>
       <c r="G22" s="17">
-        <v>94371</v>
+        <v>1308441</v>
       </c>
       <c r="H22" s="17">
-        <v>323599</v>
-      </c>
-      <c r="I22" s="17">
-        <v>270595</v>
-      </c>
-      <c r="J22" s="17">
-        <v>383598</v>
-      </c>
-      <c r="K22" s="17">
-        <v>863798</v>
-      </c>
-      <c r="L22" s="17">
-        <v>661855</v>
-      </c>
-      <c r="M22" s="17">
-        <v>1411305</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1174465</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1274,167 +992,92 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>55250</v>
+        <v>367057</v>
       </c>
       <c r="E24" s="17">
-        <v>257751</v>
+        <v>863798</v>
       </c>
       <c r="F24" s="17">
-        <v>296550</v>
+        <v>661855</v>
       </c>
       <c r="G24" s="17">
-        <v>94371</v>
+        <v>1308441</v>
       </c>
       <c r="H24" s="17">
-        <v>323599</v>
-      </c>
-      <c r="I24" s="17">
-        <v>270595</v>
-      </c>
-      <c r="J24" s="17">
-        <v>383598</v>
-      </c>
-      <c r="K24" s="17">
-        <v>863798</v>
-      </c>
-      <c r="L24" s="17">
-        <v>661855</v>
-      </c>
-      <c r="M24" s="17">
-        <v>1411305</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1174465</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="E25" s="13">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F25" s="13">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="G25" s="13">
-        <v>64</v>
+        <v>255</v>
       </c>
       <c r="H25" s="13">
-        <v>63</v>
-      </c>
-      <c r="I25" s="13">
-        <v>53</v>
-      </c>
-      <c r="J25" s="13">
-        <v>75</v>
-      </c>
-      <c r="K25" s="13">
-        <v>168</v>
-      </c>
-      <c r="L25" s="13">
-        <v>129</v>
-      </c>
-      <c r="M25" s="13">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>1468924</v>
+        <v>5141234</v>
       </c>
       <c r="E26" s="11">
-        <v>1468924</v>
+        <v>5141234</v>
       </c>
       <c r="F26" s="11">
-        <v>1468924</v>
+        <v>5141234</v>
       </c>
       <c r="G26" s="11">
-        <v>1468924</v>
+        <v>5141234</v>
       </c>
       <c r="H26" s="11">
         <v>5141234</v>
       </c>
-      <c r="I26" s="11">
-        <v>5141234</v>
-      </c>
-      <c r="J26" s="11">
-        <v>5141234</v>
-      </c>
-      <c r="K26" s="11">
-        <v>5141234</v>
-      </c>
-      <c r="L26" s="11">
-        <v>5141234</v>
-      </c>
-      <c r="M26" s="11">
-        <v>5141234</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="E27" s="13">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="F27" s="13">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="G27" s="13">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="H27" s="13">
-        <v>63</v>
-      </c>
-      <c r="I27" s="13">
-        <v>53</v>
-      </c>
-      <c r="J27" s="13">
-        <v>75</v>
-      </c>
-      <c r="K27" s="13">
-        <v>168</v>
-      </c>
-      <c r="L27" s="13">
-        <v>129</v>
-      </c>
-      <c r="M27" s="13">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1442,11 +1085,6 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/kashi/kehafez/income/quarterly/rial.xlsx
+++ b/database/industries/kashi/kehafez/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kehafez\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kehafez\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0979BF83-AA6F-48F1-9E5B-4A963267F3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4542ED9E-3E93-48A1-A8AD-0C836696C727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-08-30 (6)</t>
+  </si>
+  <si>
+    <t>1400-11-05 (3)</t>
+  </si>
+  <si>
+    <t>1401-04-22 (9)</t>
+  </si>
+  <si>
+    <t>1401-05-05 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-10 (5)</t>
   </si>
   <si>
     <t>1401-11-01 (2)</t>
@@ -585,20 +615,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -606,8 +638,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,8 +654,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,8 +670,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -637,8 +684,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -648,8 +700,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -659,8 +716,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,8 +730,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -689,29 +756,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -719,94 +816,159 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>560992</v>
+      </c>
+      <c r="E11" s="13">
+        <v>750320</v>
+      </c>
+      <c r="F11" s="13">
+        <v>722753</v>
+      </c>
+      <c r="G11" s="13">
+        <v>807734</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1108503</v>
+      </c>
+      <c r="I11" s="13">
         <v>1078860</v>
       </c>
-      <c r="E11" s="13">
+      <c r="J11" s="13">
         <v>1483266</v>
       </c>
-      <c r="F11" s="13">
+      <c r="K11" s="13">
         <v>1903632</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>3112367</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>3188078</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-389089</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-482632</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-452361</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-457104</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-708691</v>
+      </c>
+      <c r="I12" s="11">
         <v>-619254</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>-761642</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-1136800</v>
       </c>
-      <c r="G12" s="11">
+      <c r="L12" s="11">
         <v>-1657837</v>
       </c>
-      <c r="H12" s="11">
+      <c r="M12" s="11">
         <v>-1657608</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>171903</v>
+      </c>
+      <c r="E13" s="15">
+        <v>267688</v>
+      </c>
+      <c r="F13" s="15">
+        <v>270392</v>
+      </c>
+      <c r="G13" s="15">
+        <v>350630</v>
+      </c>
+      <c r="H13" s="15">
+        <v>399812</v>
+      </c>
+      <c r="I13" s="15">
         <v>459606</v>
       </c>
-      <c r="E13" s="15">
+      <c r="J13" s="15">
         <v>721624</v>
       </c>
-      <c r="F13" s="15">
+      <c r="K13" s="15">
         <v>766832</v>
       </c>
-      <c r="G13" s="15">
+      <c r="L13" s="15">
         <v>1454530</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>1530470</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-18924</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-16690</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-23073</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-22232</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-20908</v>
+      </c>
+      <c r="I14" s="11">
         <v>-21366</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-55673</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-22360</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-83991</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>-214651</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -824,157 +986,277 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>-15752</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-20614</v>
+      </c>
+      <c r="F16" s="11">
+        <v>-29004</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-13307</v>
+      </c>
+      <c r="H16" s="11">
+        <v>11491</v>
+      </c>
+      <c r="I16" s="11">
         <v>7288</v>
       </c>
-      <c r="E16" s="11">
+      <c r="J16" s="11">
         <v>-64132</v>
       </c>
-      <c r="F16" s="11">
+      <c r="K16" s="11">
         <v>-12556</v>
       </c>
-      <c r="G16" s="11">
+      <c r="L16" s="11">
         <v>20545</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>-46701</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>137227</v>
+      </c>
+      <c r="E17" s="15">
+        <v>230384</v>
+      </c>
+      <c r="F17" s="15">
+        <v>218315</v>
+      </c>
+      <c r="G17" s="15">
+        <v>315091</v>
+      </c>
+      <c r="H17" s="15">
+        <v>390395</v>
+      </c>
+      <c r="I17" s="15">
         <v>445528</v>
       </c>
-      <c r="E17" s="15">
+      <c r="J17" s="15">
         <v>601819</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>731916</v>
       </c>
-      <c r="G17" s="15">
+      <c r="L17" s="15">
         <v>1391084</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>1269118</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-9997</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-9256</v>
+      </c>
+      <c r="F18" s="11">
+        <v>3011</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-5655</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-9807</v>
+      </c>
+      <c r="I18" s="11">
         <v>-10592</v>
       </c>
-      <c r="E18" s="11">
+      <c r="J18" s="11">
         <v>-27778</v>
       </c>
-      <c r="F18" s="11">
+      <c r="K18" s="11">
         <v>-16279</v>
       </c>
-      <c r="G18" s="11">
+      <c r="L18" s="11">
         <v>-94374</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>-117832</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>202017</v>
+      </c>
+      <c r="E19" s="13">
+        <v>3926</v>
+      </c>
+      <c r="F19" s="13">
+        <v>-41280</v>
+      </c>
+      <c r="G19" s="13">
+        <v>14163</v>
+      </c>
+      <c r="H19" s="13">
+        <v>838</v>
+      </c>
+      <c r="I19" s="13">
         <v>-15001</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>142564</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>19757</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>13826</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>60169</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>329247</v>
+      </c>
+      <c r="E20" s="17">
+        <v>225054</v>
+      </c>
+      <c r="F20" s="17">
+        <v>180046</v>
+      </c>
+      <c r="G20" s="17">
+        <v>323599</v>
+      </c>
+      <c r="H20" s="17">
+        <v>381426</v>
+      </c>
+      <c r="I20" s="17">
         <v>419935</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>716605</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>735394</v>
       </c>
-      <c r="G20" s="17">
+      <c r="L20" s="17">
         <v>1310536</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>1211455</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-71496</v>
+      </c>
+      <c r="E21" s="13">
+        <v>71496</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-85675</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-110831</v>
+      </c>
+      <c r="I21" s="13">
         <v>-52878</v>
       </c>
-      <c r="E21" s="13">
+      <c r="J21" s="13">
         <v>147193</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>-73539</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>-2095</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>-36990</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>257751</v>
+      </c>
+      <c r="E22" s="17">
+        <v>296550</v>
+      </c>
+      <c r="F22" s="17">
+        <v>94371</v>
+      </c>
+      <c r="G22" s="17">
+        <v>323599</v>
+      </c>
+      <c r="H22" s="17">
+        <v>270595</v>
+      </c>
+      <c r="I22" s="17">
         <v>367057</v>
       </c>
-      <c r="E22" s="17">
+      <c r="J22" s="17">
         <v>863798</v>
       </c>
-      <c r="F22" s="17">
+      <c r="K22" s="17">
         <v>661855</v>
       </c>
-      <c r="G22" s="17">
+      <c r="L22" s="17">
         <v>1308441</v>
       </c>
-      <c r="H22" s="17">
+      <c r="M22" s="17">
         <v>1174465</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -992,62 +1274,107 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>257751</v>
+      </c>
+      <c r="E24" s="17">
+        <v>296550</v>
+      </c>
+      <c r="F24" s="17">
+        <v>94371</v>
+      </c>
+      <c r="G24" s="17">
+        <v>323599</v>
+      </c>
+      <c r="H24" s="17">
+        <v>270595</v>
+      </c>
+      <c r="I24" s="17">
         <v>367057</v>
       </c>
-      <c r="E24" s="17">
+      <c r="J24" s="17">
         <v>863798</v>
       </c>
-      <c r="F24" s="17">
+      <c r="K24" s="17">
         <v>661855</v>
       </c>
-      <c r="G24" s="17">
+      <c r="L24" s="17">
         <v>1308441</v>
       </c>
-      <c r="H24" s="17">
+      <c r="M24" s="17">
         <v>1174465</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>175</v>
+      </c>
+      <c r="E25" s="13">
+        <v>202</v>
+      </c>
+      <c r="F25" s="13">
+        <v>64</v>
+      </c>
+      <c r="G25" s="13">
+        <v>63</v>
+      </c>
+      <c r="H25" s="13">
+        <v>53</v>
+      </c>
+      <c r="I25" s="13">
         <v>71</v>
       </c>
-      <c r="E25" s="13">
+      <c r="J25" s="13">
         <v>168</v>
       </c>
-      <c r="F25" s="13">
+      <c r="K25" s="13">
         <v>129</v>
       </c>
-      <c r="G25" s="13">
+      <c r="L25" s="13">
         <v>255</v>
       </c>
-      <c r="H25" s="13">
+      <c r="M25" s="13">
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>5141234</v>
+        <v>1468924</v>
       </c>
       <c r="E26" s="11">
-        <v>5141234</v>
+        <v>1468924</v>
       </c>
       <c r="F26" s="11">
-        <v>5141234</v>
+        <v>1468924</v>
       </c>
       <c r="G26" s="11">
         <v>5141234</v>
@@ -1055,29 +1382,59 @@
       <c r="H26" s="11">
         <v>5141234</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="11">
+        <v>5141234</v>
+      </c>
+      <c r="J26" s="11">
+        <v>5141234</v>
+      </c>
+      <c r="K26" s="11">
+        <v>5141234</v>
+      </c>
+      <c r="L26" s="11">
+        <v>5141234</v>
+      </c>
+      <c r="M26" s="11">
+        <v>5141234</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>50</v>
+      </c>
+      <c r="E27" s="13">
+        <v>58</v>
+      </c>
+      <c r="F27" s="13">
+        <v>18</v>
+      </c>
+      <c r="G27" s="13">
+        <v>63</v>
+      </c>
+      <c r="H27" s="13">
+        <v>53</v>
+      </c>
+      <c r="I27" s="13">
         <v>71</v>
       </c>
-      <c r="E27" s="13">
+      <c r="J27" s="13">
         <v>168</v>
       </c>
-      <c r="F27" s="13">
+      <c r="K27" s="13">
         <v>129</v>
       </c>
-      <c r="G27" s="13">
+      <c r="L27" s="13">
         <v>255</v>
       </c>
-      <c r="H27" s="13">
+      <c r="M27" s="13">
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1085,6 +1442,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/kashi/kehafez/income/quarterly/rial.xlsx
+++ b/database/industries/kashi/kehafez/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kehafez\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kehafez\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4542ED9E-3E93-48A1-A8AD-0C836696C727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA7FE61-AD2E-4323-B8B9-28978BC67CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>هزینه کاهش ارزش دریافتنی‌‏ها (هزینه استثنایی)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>خالص سایر درامدها (هزینه ها) ی عملیاتی</t>
@@ -619,7 +622,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
@@ -630,7 +633,7 @@
     <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,7 +647,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +663,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,7 +679,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +693,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,7 +709,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,7 +725,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,7 +739,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,7 +775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -808,7 +811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,619 +825,619 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>560992</v>
+        <v>0</v>
       </c>
       <c r="E11" s="13">
-        <v>750320</v>
+        <v>0</v>
       </c>
       <c r="F11" s="13">
-        <v>722753</v>
+        <v>0</v>
       </c>
       <c r="G11" s="13">
-        <v>807734</v>
+        <v>0</v>
       </c>
       <c r="H11" s="13">
-        <v>1108503</v>
+        <v>0</v>
       </c>
       <c r="I11" s="13">
-        <v>1078860</v>
+        <v>0</v>
       </c>
       <c r="J11" s="13">
-        <v>1483266</v>
+        <v>0</v>
       </c>
       <c r="K11" s="13">
-        <v>1903632</v>
+        <v>0</v>
       </c>
       <c r="L11" s="13">
-        <v>3112367</v>
+        <v>0</v>
       </c>
       <c r="M11" s="13">
-        <v>3188078</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-389089</v>
+        <v>0</v>
       </c>
       <c r="E12" s="11">
-        <v>-482632</v>
+        <v>0</v>
       </c>
       <c r="F12" s="11">
-        <v>-452361</v>
+        <v>0</v>
       </c>
       <c r="G12" s="11">
-        <v>-457104</v>
+        <v>0</v>
       </c>
       <c r="H12" s="11">
-        <v>-708691</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
-        <v>-619254</v>
+        <v>0</v>
       </c>
       <c r="J12" s="11">
-        <v>-761642</v>
+        <v>0</v>
       </c>
       <c r="K12" s="11">
-        <v>-1136800</v>
+        <v>0</v>
       </c>
       <c r="L12" s="11">
-        <v>-1657837</v>
+        <v>0</v>
       </c>
       <c r="M12" s="11">
-        <v>-1657608</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>171903</v>
+        <v>0</v>
       </c>
       <c r="E13" s="15">
-        <v>267688</v>
+        <v>0</v>
       </c>
       <c r="F13" s="15">
-        <v>270392</v>
+        <v>0</v>
       </c>
       <c r="G13" s="15">
-        <v>350630</v>
+        <v>0</v>
       </c>
       <c r="H13" s="15">
-        <v>399812</v>
+        <v>0</v>
       </c>
       <c r="I13" s="15">
-        <v>459606</v>
+        <v>0</v>
       </c>
       <c r="J13" s="15">
-        <v>721624</v>
+        <v>0</v>
       </c>
       <c r="K13" s="15">
-        <v>766832</v>
+        <v>0</v>
       </c>
       <c r="L13" s="15">
-        <v>1454530</v>
+        <v>0</v>
       </c>
       <c r="M13" s="15">
-        <v>1530470</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-18924</v>
+        <v>0</v>
       </c>
       <c r="E14" s="11">
-        <v>-16690</v>
+        <v>0</v>
       </c>
       <c r="F14" s="11">
-        <v>-23073</v>
+        <v>0</v>
       </c>
       <c r="G14" s="11">
-        <v>-22232</v>
+        <v>0</v>
       </c>
       <c r="H14" s="11">
-        <v>-20908</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
-        <v>-21366</v>
+        <v>0</v>
       </c>
       <c r="J14" s="11">
-        <v>-55673</v>
+        <v>0</v>
       </c>
       <c r="K14" s="11">
-        <v>-22360</v>
+        <v>0</v>
       </c>
       <c r="L14" s="11">
-        <v>-83991</v>
+        <v>0</v>
       </c>
       <c r="M14" s="11">
-        <v>-214651</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="13">
-        <v>0</v>
-      </c>
-      <c r="E15" s="13">
-        <v>0</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13">
-        <v>0</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <v>0</v>
-      </c>
-      <c r="M15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>-15752</v>
+        <v>0</v>
       </c>
       <c r="E16" s="11">
-        <v>-20614</v>
+        <v>0</v>
       </c>
       <c r="F16" s="11">
-        <v>-29004</v>
+        <v>0</v>
       </c>
       <c r="G16" s="11">
-        <v>-13307</v>
+        <v>0</v>
       </c>
       <c r="H16" s="11">
-        <v>11491</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
-        <v>7288</v>
+        <v>0</v>
       </c>
       <c r="J16" s="11">
-        <v>-64132</v>
+        <v>0</v>
       </c>
       <c r="K16" s="11">
-        <v>-12556</v>
+        <v>0</v>
       </c>
       <c r="L16" s="11">
-        <v>20545</v>
+        <v>0</v>
       </c>
       <c r="M16" s="11">
-        <v>-46701</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>137227</v>
+        <v>0</v>
       </c>
       <c r="E17" s="15">
-        <v>230384</v>
+        <v>0</v>
       </c>
       <c r="F17" s="15">
-        <v>218315</v>
+        <v>0</v>
       </c>
       <c r="G17" s="15">
-        <v>315091</v>
+        <v>0</v>
       </c>
       <c r="H17" s="15">
-        <v>390395</v>
+        <v>0</v>
       </c>
       <c r="I17" s="15">
-        <v>445528</v>
+        <v>0</v>
       </c>
       <c r="J17" s="15">
-        <v>601819</v>
+        <v>0</v>
       </c>
       <c r="K17" s="15">
-        <v>731916</v>
+        <v>0</v>
       </c>
       <c r="L17" s="15">
-        <v>1391084</v>
+        <v>0</v>
       </c>
       <c r="M17" s="15">
-        <v>1269118</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-9997</v>
+        <v>0</v>
       </c>
       <c r="E18" s="11">
-        <v>-9256</v>
+        <v>0</v>
       </c>
       <c r="F18" s="11">
-        <v>3011</v>
+        <v>0</v>
       </c>
       <c r="G18" s="11">
-        <v>-5655</v>
+        <v>0</v>
       </c>
       <c r="H18" s="11">
-        <v>-9807</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
-        <v>-10592</v>
+        <v>0</v>
       </c>
       <c r="J18" s="11">
-        <v>-27778</v>
+        <v>0</v>
       </c>
       <c r="K18" s="11">
-        <v>-16279</v>
+        <v>0</v>
       </c>
       <c r="L18" s="11">
-        <v>-94374</v>
+        <v>0</v>
       </c>
       <c r="M18" s="11">
-        <v>-117832</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>202017</v>
+        <v>0</v>
       </c>
       <c r="E19" s="13">
-        <v>3926</v>
+        <v>0</v>
       </c>
       <c r="F19" s="13">
-        <v>-41280</v>
+        <v>0</v>
       </c>
       <c r="G19" s="13">
-        <v>14163</v>
+        <v>0</v>
       </c>
       <c r="H19" s="13">
-        <v>838</v>
+        <v>0</v>
       </c>
       <c r="I19" s="13">
-        <v>-15001</v>
+        <v>0</v>
       </c>
       <c r="J19" s="13">
-        <v>142564</v>
+        <v>0</v>
       </c>
       <c r="K19" s="13">
-        <v>19757</v>
+        <v>0</v>
       </c>
       <c r="L19" s="13">
-        <v>13826</v>
+        <v>0</v>
       </c>
       <c r="M19" s="13">
-        <v>60169</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>329247</v>
+        <v>0</v>
       </c>
       <c r="E20" s="17">
-        <v>225054</v>
+        <v>0</v>
       </c>
       <c r="F20" s="17">
-        <v>180046</v>
+        <v>0</v>
       </c>
       <c r="G20" s="17">
-        <v>323599</v>
+        <v>0</v>
       </c>
       <c r="H20" s="17">
-        <v>381426</v>
+        <v>0</v>
       </c>
       <c r="I20" s="17">
-        <v>419935</v>
+        <v>0</v>
       </c>
       <c r="J20" s="17">
-        <v>716605</v>
+        <v>0</v>
       </c>
       <c r="K20" s="17">
-        <v>735394</v>
+        <v>0</v>
       </c>
       <c r="L20" s="17">
-        <v>1310536</v>
+        <v>0</v>
       </c>
       <c r="M20" s="17">
-        <v>1211455</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-71496</v>
+        <v>0</v>
       </c>
       <c r="E21" s="13">
-        <v>71496</v>
+        <v>0</v>
       </c>
       <c r="F21" s="13">
-        <v>-85675</v>
-      </c>
-      <c r="G21" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="H21" s="13">
-        <v>-110831</v>
+        <v>0</v>
       </c>
       <c r="I21" s="13">
-        <v>-52878</v>
+        <v>0</v>
       </c>
       <c r="J21" s="13">
-        <v>147193</v>
+        <v>0</v>
       </c>
       <c r="K21" s="13">
-        <v>-73539</v>
+        <v>0</v>
       </c>
       <c r="L21" s="13">
-        <v>-2095</v>
+        <v>0</v>
       </c>
       <c r="M21" s="13">
-        <v>-36990</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>257751</v>
+        <v>0</v>
       </c>
       <c r="E22" s="17">
-        <v>296550</v>
+        <v>0</v>
       </c>
       <c r="F22" s="17">
-        <v>94371</v>
+        <v>0</v>
       </c>
       <c r="G22" s="17">
-        <v>323599</v>
+        <v>0</v>
       </c>
       <c r="H22" s="17">
-        <v>270595</v>
+        <v>0</v>
       </c>
       <c r="I22" s="17">
-        <v>367057</v>
+        <v>0</v>
       </c>
       <c r="J22" s="17">
-        <v>863798</v>
+        <v>0</v>
       </c>
       <c r="K22" s="17">
-        <v>661855</v>
+        <v>0</v>
       </c>
       <c r="L22" s="17">
-        <v>1308441</v>
+        <v>0</v>
       </c>
       <c r="M22" s="17">
-        <v>1174465</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="13">
-        <v>0</v>
-      </c>
-      <c r="E23" s="13">
-        <v>0</v>
-      </c>
-      <c r="F23" s="13">
-        <v>0</v>
-      </c>
-      <c r="G23" s="13">
-        <v>0</v>
-      </c>
-      <c r="H23" s="13">
-        <v>0</v>
-      </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>257751</v>
+        <v>0</v>
       </c>
       <c r="E24" s="17">
-        <v>296550</v>
+        <v>0</v>
       </c>
       <c r="F24" s="17">
-        <v>94371</v>
+        <v>0</v>
       </c>
       <c r="G24" s="17">
-        <v>323599</v>
+        <v>0</v>
       </c>
       <c r="H24" s="17">
-        <v>270595</v>
+        <v>0</v>
       </c>
       <c r="I24" s="17">
-        <v>367057</v>
+        <v>0</v>
       </c>
       <c r="J24" s="17">
-        <v>863798</v>
+        <v>0</v>
       </c>
       <c r="K24" s="17">
-        <v>661855</v>
+        <v>0</v>
       </c>
       <c r="L24" s="17">
-        <v>1308441</v>
+        <v>0</v>
       </c>
       <c r="M24" s="17">
-        <v>1174465</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="E25" s="13">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="F25" s="13">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G25" s="13">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="H25" s="13">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I25" s="13">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="J25" s="13">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="K25" s="13">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="L25" s="13">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="M25" s="13">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>1468924</v>
+        <v>0</v>
       </c>
       <c r="E26" s="11">
-        <v>1468924</v>
+        <v>0</v>
       </c>
       <c r="F26" s="11">
-        <v>1468924</v>
+        <v>0</v>
       </c>
       <c r="G26" s="11">
-        <v>5141234</v>
+        <v>0</v>
       </c>
       <c r="H26" s="11">
-        <v>5141234</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
-        <v>5141234</v>
+        <v>0</v>
       </c>
       <c r="J26" s="11">
-        <v>5141234</v>
+        <v>0</v>
       </c>
       <c r="K26" s="11">
-        <v>5141234</v>
+        <v>0</v>
       </c>
       <c r="L26" s="11">
-        <v>5141234</v>
+        <v>0</v>
       </c>
       <c r="M26" s="11">
-        <v>5141234</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E27" s="13">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="F27" s="13">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G27" s="13">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="H27" s="13">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I27" s="13">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="J27" s="13">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="K27" s="13">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="L27" s="13">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="M27" s="13">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/kashi/kehafez/income/quarterly/rial.xlsx
+++ b/database/industries/kashi/kehafez/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kehafez\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\kashi\kehafez\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA7FE61-AD2E-4323-B8B9-28978BC67CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BEECDF-5E63-4022-BDC6-500A4420B1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>هزینه کاهش ارزش دریافتنی‌‏ها (هزینه استثنایی)</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>خالص سایر درامدها (هزینه ها) ی عملیاتی</t>
@@ -831,34 +828,34 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>0</v>
+        <v>560992</v>
       </c>
       <c r="E11" s="13">
-        <v>0</v>
+        <v>750320</v>
       </c>
       <c r="F11" s="13">
-        <v>0</v>
+        <v>722753</v>
       </c>
       <c r="G11" s="13">
-        <v>0</v>
+        <v>807734</v>
       </c>
       <c r="H11" s="13">
-        <v>0</v>
+        <v>1108503</v>
       </c>
       <c r="I11" s="13">
-        <v>0</v>
+        <v>1078860</v>
       </c>
       <c r="J11" s="13">
-        <v>0</v>
+        <v>1483266</v>
       </c>
       <c r="K11" s="13">
-        <v>0</v>
+        <v>1903632</v>
       </c>
       <c r="L11" s="13">
-        <v>0</v>
+        <v>3112367</v>
       </c>
       <c r="M11" s="13">
-        <v>0</v>
+        <v>3188078</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
@@ -867,34 +864,34 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>0</v>
+        <v>-389089</v>
       </c>
       <c r="E12" s="11">
-        <v>0</v>
+        <v>-482632</v>
       </c>
       <c r="F12" s="11">
-        <v>0</v>
+        <v>-452361</v>
       </c>
       <c r="G12" s="11">
-        <v>0</v>
+        <v>-457104</v>
       </c>
       <c r="H12" s="11">
-        <v>0</v>
+        <v>-708691</v>
       </c>
       <c r="I12" s="11">
-        <v>0</v>
+        <v>-619254</v>
       </c>
       <c r="J12" s="11">
-        <v>0</v>
+        <v>-761642</v>
       </c>
       <c r="K12" s="11">
-        <v>0</v>
+        <v>-1136800</v>
       </c>
       <c r="L12" s="11">
-        <v>0</v>
+        <v>-1657837</v>
       </c>
       <c r="M12" s="11">
-        <v>0</v>
+        <v>-1657608</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
@@ -903,34 +900,34 @@
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>0</v>
+        <v>171903</v>
       </c>
       <c r="E13" s="15">
-        <v>0</v>
+        <v>267688</v>
       </c>
       <c r="F13" s="15">
-        <v>0</v>
+        <v>270392</v>
       </c>
       <c r="G13" s="15">
-        <v>0</v>
+        <v>350630</v>
       </c>
       <c r="H13" s="15">
-        <v>0</v>
+        <v>399812</v>
       </c>
       <c r="I13" s="15">
-        <v>0</v>
+        <v>459606</v>
       </c>
       <c r="J13" s="15">
-        <v>0</v>
+        <v>721624</v>
       </c>
       <c r="K13" s="15">
-        <v>0</v>
+        <v>766832</v>
       </c>
       <c r="L13" s="15">
-        <v>0</v>
+        <v>1454530</v>
       </c>
       <c r="M13" s="15">
-        <v>0</v>
+        <v>1530470</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
@@ -939,34 +936,34 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>0</v>
+        <v>-18924</v>
       </c>
       <c r="E14" s="11">
-        <v>0</v>
+        <v>-16690</v>
       </c>
       <c r="F14" s="11">
-        <v>0</v>
+        <v>-23073</v>
       </c>
       <c r="G14" s="11">
-        <v>0</v>
+        <v>-22232</v>
       </c>
       <c r="H14" s="11">
-        <v>0</v>
+        <v>-20908</v>
       </c>
       <c r="I14" s="11">
-        <v>0</v>
+        <v>-21366</v>
       </c>
       <c r="J14" s="11">
-        <v>0</v>
+        <v>-55673</v>
       </c>
       <c r="K14" s="11">
-        <v>0</v>
+        <v>-22360</v>
       </c>
       <c r="L14" s="11">
-        <v>0</v>
+        <v>-83991</v>
       </c>
       <c r="M14" s="11">
-        <v>0</v>
+        <v>-214651</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
@@ -974,467 +971,467 @@
         <v>30</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>31</v>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>0</v>
+        <v>-15752</v>
       </c>
       <c r="E16" s="11">
-        <v>0</v>
+        <v>-20614</v>
       </c>
       <c r="F16" s="11">
-        <v>0</v>
+        <v>-29004</v>
       </c>
       <c r="G16" s="11">
-        <v>0</v>
+        <v>-13307</v>
       </c>
       <c r="H16" s="11">
-        <v>0</v>
+        <v>11491</v>
       </c>
       <c r="I16" s="11">
-        <v>0</v>
+        <v>7288</v>
       </c>
       <c r="J16" s="11">
-        <v>0</v>
+        <v>-64132</v>
       </c>
       <c r="K16" s="11">
-        <v>0</v>
+        <v>-12556</v>
       </c>
       <c r="L16" s="11">
-        <v>0</v>
+        <v>20545</v>
       </c>
       <c r="M16" s="11">
-        <v>0</v>
+        <v>-46701</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>0</v>
+        <v>137227</v>
       </c>
       <c r="E17" s="15">
-        <v>0</v>
+        <v>230384</v>
       </c>
       <c r="F17" s="15">
-        <v>0</v>
+        <v>218315</v>
       </c>
       <c r="G17" s="15">
-        <v>0</v>
+        <v>315091</v>
       </c>
       <c r="H17" s="15">
-        <v>0</v>
+        <v>390395</v>
       </c>
       <c r="I17" s="15">
-        <v>0</v>
+        <v>445528</v>
       </c>
       <c r="J17" s="15">
-        <v>0</v>
+        <v>601819</v>
       </c>
       <c r="K17" s="15">
-        <v>0</v>
+        <v>731916</v>
       </c>
       <c r="L17" s="15">
-        <v>0</v>
+        <v>1391084</v>
       </c>
       <c r="M17" s="15">
-        <v>0</v>
+        <v>1269118</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>0</v>
+        <v>-9997</v>
       </c>
       <c r="E18" s="11">
-        <v>0</v>
+        <v>-9256</v>
       </c>
       <c r="F18" s="11">
-        <v>0</v>
+        <v>3011</v>
       </c>
       <c r="G18" s="11">
-        <v>0</v>
+        <v>-5655</v>
       </c>
       <c r="H18" s="11">
-        <v>0</v>
+        <v>-9807</v>
       </c>
       <c r="I18" s="11">
-        <v>0</v>
+        <v>-10592</v>
       </c>
       <c r="J18" s="11">
-        <v>0</v>
+        <v>-27778</v>
       </c>
       <c r="K18" s="11">
-        <v>0</v>
+        <v>-16279</v>
       </c>
       <c r="L18" s="11">
-        <v>0</v>
+        <v>-94374</v>
       </c>
       <c r="M18" s="11">
-        <v>0</v>
+        <v>-117832</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>0</v>
+        <v>202017</v>
       </c>
       <c r="E19" s="13">
-        <v>0</v>
+        <v>3926</v>
       </c>
       <c r="F19" s="13">
-        <v>0</v>
+        <v>-41280</v>
       </c>
       <c r="G19" s="13">
-        <v>0</v>
+        <v>14163</v>
       </c>
       <c r="H19" s="13">
-        <v>0</v>
+        <v>838</v>
       </c>
       <c r="I19" s="13">
-        <v>0</v>
+        <v>-15001</v>
       </c>
       <c r="J19" s="13">
-        <v>0</v>
+        <v>142564</v>
       </c>
       <c r="K19" s="13">
-        <v>0</v>
+        <v>19757</v>
       </c>
       <c r="L19" s="13">
-        <v>0</v>
+        <v>13826</v>
       </c>
       <c r="M19" s="13">
-        <v>0</v>
+        <v>60169</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>0</v>
+        <v>329247</v>
       </c>
       <c r="E20" s="17">
-        <v>0</v>
+        <v>225054</v>
       </c>
       <c r="F20" s="17">
-        <v>0</v>
+        <v>180046</v>
       </c>
       <c r="G20" s="17">
-        <v>0</v>
+        <v>323599</v>
       </c>
       <c r="H20" s="17">
-        <v>0</v>
+        <v>381426</v>
       </c>
       <c r="I20" s="17">
-        <v>0</v>
+        <v>419935</v>
       </c>
       <c r="J20" s="17">
-        <v>0</v>
+        <v>716605</v>
       </c>
       <c r="K20" s="17">
-        <v>0</v>
+        <v>735394</v>
       </c>
       <c r="L20" s="17">
-        <v>0</v>
+        <v>1310536</v>
       </c>
       <c r="M20" s="17">
-        <v>0</v>
+        <v>1211455</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>0</v>
+        <v>-71496</v>
       </c>
       <c r="E21" s="13">
-        <v>0</v>
+        <v>71496</v>
       </c>
       <c r="F21" s="13">
-        <v>0</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>31</v>
+        <v>-85675</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0</v>
       </c>
       <c r="H21" s="13">
-        <v>0</v>
+        <v>-110831</v>
       </c>
       <c r="I21" s="13">
-        <v>0</v>
+        <v>-52878</v>
       </c>
       <c r="J21" s="13">
-        <v>0</v>
+        <v>147193</v>
       </c>
       <c r="K21" s="13">
-        <v>0</v>
+        <v>-73539</v>
       </c>
       <c r="L21" s="13">
-        <v>0</v>
+        <v>-2095</v>
       </c>
       <c r="M21" s="13">
-        <v>0</v>
+        <v>-36990</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>0</v>
+        <v>257751</v>
       </c>
       <c r="E22" s="17">
-        <v>0</v>
+        <v>296550</v>
       </c>
       <c r="F22" s="17">
-        <v>0</v>
+        <v>94371</v>
       </c>
       <c r="G22" s="17">
-        <v>0</v>
+        <v>323599</v>
       </c>
       <c r="H22" s="17">
-        <v>0</v>
+        <v>270595</v>
       </c>
       <c r="I22" s="17">
-        <v>0</v>
+        <v>367057</v>
       </c>
       <c r="J22" s="17">
-        <v>0</v>
+        <v>863798</v>
       </c>
       <c r="K22" s="17">
-        <v>0</v>
+        <v>661855</v>
       </c>
       <c r="L22" s="17">
-        <v>0</v>
+        <v>1308441</v>
       </c>
       <c r="M22" s="17">
-        <v>0</v>
+        <v>1174465</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>31</v>
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>0</v>
+        <v>257751</v>
       </c>
       <c r="E24" s="17">
-        <v>0</v>
+        <v>296550</v>
       </c>
       <c r="F24" s="17">
-        <v>0</v>
+        <v>94371</v>
       </c>
       <c r="G24" s="17">
-        <v>0</v>
+        <v>323599</v>
       </c>
       <c r="H24" s="17">
-        <v>0</v>
+        <v>270595</v>
       </c>
       <c r="I24" s="17">
-        <v>0</v>
+        <v>367057</v>
       </c>
       <c r="J24" s="17">
-        <v>0</v>
+        <v>863798</v>
       </c>
       <c r="K24" s="17">
-        <v>0</v>
+        <v>661855</v>
       </c>
       <c r="L24" s="17">
-        <v>0</v>
+        <v>1308441</v>
       </c>
       <c r="M24" s="17">
-        <v>0</v>
+        <v>1174465</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="E25" s="13">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="F25" s="13">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G25" s="13">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="H25" s="13">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I25" s="13">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="J25" s="13">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K25" s="13">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="L25" s="13">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="M25" s="13">
-        <v>0</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>0</v>
+        <v>1468924</v>
       </c>
       <c r="E26" s="11">
-        <v>0</v>
+        <v>1468924</v>
       </c>
       <c r="F26" s="11">
-        <v>0</v>
+        <v>1468924</v>
       </c>
       <c r="G26" s="11">
-        <v>0</v>
+        <v>5141234</v>
       </c>
       <c r="H26" s="11">
-        <v>0</v>
+        <v>5141234</v>
       </c>
       <c r="I26" s="11">
-        <v>0</v>
+        <v>5141234</v>
       </c>
       <c r="J26" s="11">
-        <v>0</v>
+        <v>5141234</v>
       </c>
       <c r="K26" s="11">
-        <v>0</v>
+        <v>5141234</v>
       </c>
       <c r="L26" s="11">
-        <v>0</v>
+        <v>5141234</v>
       </c>
       <c r="M26" s="11">
-        <v>0</v>
+        <v>5141234</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E27" s="13">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F27" s="13">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G27" s="13">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="H27" s="13">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I27" s="13">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="J27" s="13">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K27" s="13">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="L27" s="13">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="M27" s="13">
-        <v>0</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">

--- a/database/industries/kashi/kehafez/income/quarterly/rial.xlsx
+++ b/database/industries/kashi/kehafez/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\kashi\kehafez\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\kashi\kehafez\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BEECDF-5E63-4022-BDC6-500A4420B1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972A2A84-F88F-45FE-B7AE-F10D8CCFF28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1464" windowWidth="20460" windowHeight="10776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>کحافظ-کاشی‌ وسرامیک‌ حافظ‌</t>
@@ -37,6 +37,27 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
     <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
@@ -67,9 +88,39 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-10-30 (2)</t>
+  </si>
+  <si>
+    <t>1399-03-13 (10)</t>
+  </si>
+  <si>
+    <t>1399-04-30 (2)</t>
+  </si>
+  <si>
+    <t>1399-10-01 (6)</t>
+  </si>
+  <si>
+    <t>1399-11-07 (3)</t>
+  </si>
+  <si>
+    <t>1400-04-09 (12)</t>
+  </si>
+  <si>
+    <t>1400-04-29 (2)</t>
+  </si>
+  <si>
     <t>1400-08-30 (6)</t>
   </si>
   <si>
@@ -88,18 +139,24 @@
     <t>1401-11-01 (2)</t>
   </si>
   <si>
-    <t>1401-11-01 (8)</t>
-  </si>
-  <si>
-    <t>1401-05-05</t>
-  </si>
-  <si>
-    <t>1401-10-10 (3)</t>
+    <t>1402-04-26 (10)</t>
+  </si>
+  <si>
+    <t>1402-05-01 (2)</t>
+  </si>
+  <si>
+    <t>1402-09-15 (5)</t>
   </si>
   <si>
     <t>1401-11-01</t>
   </si>
   <si>
+    <t>1402-05-01</t>
+  </si>
+  <si>
+    <t>1402-09-15 (2)</t>
+  </si>
+  <si>
     <t>فروش</t>
   </si>
   <si>
@@ -121,13 +178,13 @@
     <t>سود (زیان) عملیاتی</t>
   </si>
   <si>
-    <t>هزینه های مالی</t>
-  </si>
-  <si>
-    <t>خالص سایر درامدها و هزینه های غیرعملیاتی</t>
-  </si>
-  <si>
-    <t>سود (زیان) خالص عملیات در حال تداوم قبل از مالیات</t>
+    <t>هزینه‌های مالی</t>
+  </si>
+  <si>
+    <t>خالص سایر درآمدها و هزینه‌های غیرعملیاتی</t>
+  </si>
+  <si>
+    <t>سود (زیان) عملیات در حال تداوم قبل از مالیات</t>
   </si>
   <si>
     <t>مالیات</t>
@@ -615,22 +672,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -643,8 +706,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -659,8 +732,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -675,8 +758,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -689,8 +782,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -705,8 +808,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -721,8 +834,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -735,8 +858,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -771,44 +904,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -821,154 +1014,284 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>54059</v>
+      </c>
+      <c r="E11" s="13">
+        <v>80149</v>
+      </c>
+      <c r="F11" s="13">
+        <v>94855</v>
+      </c>
+      <c r="G11" s="13">
+        <v>218280</v>
+      </c>
+      <c r="H11" s="13">
+        <v>267627</v>
+      </c>
+      <c r="I11" s="13">
+        <v>410576</v>
+      </c>
+      <c r="J11" s="13">
+        <v>312562</v>
+      </c>
+      <c r="K11" s="13">
         <v>560992</v>
       </c>
-      <c r="E11" s="13">
+      <c r="L11" s="13">
         <v>750320</v>
       </c>
-      <c r="F11" s="13">
+      <c r="M11" s="13">
         <v>722753</v>
       </c>
-      <c r="G11" s="13">
+      <c r="N11" s="13">
         <v>807734</v>
       </c>
-      <c r="H11" s="13">
+      <c r="O11" s="13">
         <v>1108503</v>
       </c>
-      <c r="I11" s="13">
+      <c r="P11" s="13">
         <v>1078860</v>
       </c>
-      <c r="J11" s="13">
+      <c r="Q11" s="13">
         <v>1483266</v>
       </c>
-      <c r="K11" s="13">
-        <v>1903632</v>
-      </c>
-      <c r="L11" s="13">
-        <v>3112367</v>
-      </c>
-      <c r="M11" s="13">
+      <c r="R11" s="13">
+        <v>1901583</v>
+      </c>
+      <c r="S11" s="13">
+        <v>3114416</v>
+      </c>
+      <c r="T11" s="13">
         <v>3188078</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U11" s="13">
+        <v>3088413</v>
+      </c>
+      <c r="V11" s="13">
+        <v>3586906</v>
+      </c>
+      <c r="W11" s="13">
+        <v>4561525</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-28942</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-164988</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-91855</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-201572</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-234533</v>
+      </c>
+      <c r="I12" s="11">
+        <v>-383440</v>
+      </c>
+      <c r="J12" s="11">
+        <v>-272114</v>
+      </c>
+      <c r="K12" s="11">
         <v>-389089</v>
       </c>
-      <c r="E12" s="11">
+      <c r="L12" s="11">
         <v>-482632</v>
       </c>
-      <c r="F12" s="11">
+      <c r="M12" s="11">
         <v>-452361</v>
       </c>
-      <c r="G12" s="11">
+      <c r="N12" s="11">
         <v>-457104</v>
       </c>
-      <c r="H12" s="11">
+      <c r="O12" s="11">
         <v>-708691</v>
       </c>
-      <c r="I12" s="11">
+      <c r="P12" s="11">
         <v>-619254</v>
       </c>
-      <c r="J12" s="11">
+      <c r="Q12" s="11">
         <v>-761642</v>
       </c>
-      <c r="K12" s="11">
-        <v>-1136800</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-1657837</v>
-      </c>
-      <c r="M12" s="11">
+      <c r="R12" s="11">
+        <v>-1134751</v>
+      </c>
+      <c r="S12" s="11">
+        <v>-1659886</v>
+      </c>
+      <c r="T12" s="11">
         <v>-1657608</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U12" s="11">
+        <v>-1510721</v>
+      </c>
+      <c r="V12" s="11">
+        <v>-2307375</v>
+      </c>
+      <c r="W12" s="11">
+        <v>-2288222</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>25117</v>
+      </c>
+      <c r="E13" s="15">
+        <v>-84839</v>
+      </c>
+      <c r="F13" s="15">
+        <v>3000</v>
+      </c>
+      <c r="G13" s="15">
+        <v>16708</v>
+      </c>
+      <c r="H13" s="15">
+        <v>33094</v>
+      </c>
+      <c r="I13" s="15">
+        <v>27136</v>
+      </c>
+      <c r="J13" s="15">
+        <v>40448</v>
+      </c>
+      <c r="K13" s="15">
         <v>171903</v>
       </c>
-      <c r="E13" s="15">
+      <c r="L13" s="15">
         <v>267688</v>
       </c>
-      <c r="F13" s="15">
+      <c r="M13" s="15">
         <v>270392</v>
       </c>
-      <c r="G13" s="15">
+      <c r="N13" s="15">
         <v>350630</v>
       </c>
-      <c r="H13" s="15">
+      <c r="O13" s="15">
         <v>399812</v>
       </c>
-      <c r="I13" s="15">
+      <c r="P13" s="15">
         <v>459606</v>
       </c>
-      <c r="J13" s="15">
+      <c r="Q13" s="15">
         <v>721624</v>
       </c>
-      <c r="K13" s="15">
+      <c r="R13" s="15">
         <v>766832</v>
       </c>
-      <c r="L13" s="15">
+      <c r="S13" s="15">
         <v>1454530</v>
       </c>
-      <c r="M13" s="15">
+      <c r="T13" s="15">
         <v>1530470</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U13" s="15">
+        <v>1577692</v>
+      </c>
+      <c r="V13" s="15">
+        <v>1279531</v>
+      </c>
+      <c r="W13" s="15">
+        <v>2273303</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-2281</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-8513</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-7691</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-7996</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-1790</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-29316</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-3771</v>
+      </c>
+      <c r="K14" s="11">
         <v>-18924</v>
       </c>
-      <c r="E14" s="11">
+      <c r="L14" s="11">
         <v>-16690</v>
       </c>
-      <c r="F14" s="11">
+      <c r="M14" s="11">
         <v>-23073</v>
       </c>
-      <c r="G14" s="11">
+      <c r="N14" s="11">
         <v>-22232</v>
       </c>
-      <c r="H14" s="11">
+      <c r="O14" s="11">
         <v>-20908</v>
       </c>
-      <c r="I14" s="11">
+      <c r="P14" s="11">
         <v>-21366</v>
       </c>
-      <c r="J14" s="11">
+      <c r="Q14" s="11">
         <v>-55673</v>
       </c>
-      <c r="K14" s="11">
+      <c r="R14" s="11">
         <v>-22360</v>
       </c>
-      <c r="L14" s="11">
+      <c r="S14" s="11">
         <v>-83991</v>
       </c>
-      <c r="M14" s="11">
+      <c r="T14" s="11">
         <v>-214651</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U14" s="11">
+        <v>-321180</v>
+      </c>
+      <c r="V14" s="11">
+        <v>-60173</v>
+      </c>
+      <c r="W14" s="11">
+        <v>-195492</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -1001,262 +1324,502 @@
       <c r="M15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0</v>
+      </c>
+      <c r="W15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>-7934</v>
+      </c>
+      <c r="E16" s="11">
+        <v>49425</v>
+      </c>
+      <c r="F16" s="11">
+        <v>-15986</v>
+      </c>
+      <c r="G16" s="11">
+        <v>39617</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-9763</v>
+      </c>
+      <c r="I16" s="11">
+        <v>19818</v>
+      </c>
+      <c r="J16" s="11">
+        <v>18273</v>
+      </c>
+      <c r="K16" s="11">
         <v>-15752</v>
       </c>
-      <c r="E16" s="11">
+      <c r="L16" s="11">
         <v>-20614</v>
       </c>
-      <c r="F16" s="11">
+      <c r="M16" s="11">
         <v>-29004</v>
       </c>
-      <c r="G16" s="11">
+      <c r="N16" s="11">
         <v>-13307</v>
       </c>
-      <c r="H16" s="11">
+      <c r="O16" s="11">
         <v>11491</v>
       </c>
-      <c r="I16" s="11">
+      <c r="P16" s="11">
         <v>7288</v>
       </c>
-      <c r="J16" s="11">
+      <c r="Q16" s="11">
         <v>-64132</v>
       </c>
-      <c r="K16" s="11">
+      <c r="R16" s="11">
         <v>-12556</v>
       </c>
-      <c r="L16" s="11">
+      <c r="S16" s="11">
         <v>20545</v>
       </c>
-      <c r="M16" s="11">
+      <c r="T16" s="11">
         <v>-46701</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U16" s="11">
+        <v>-114943</v>
+      </c>
+      <c r="V16" s="11">
+        <v>87374</v>
+      </c>
+      <c r="W16" s="11">
+        <v>-48257</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>14902</v>
+      </c>
+      <c r="E17" s="15">
+        <v>-43927</v>
+      </c>
+      <c r="F17" s="15">
+        <v>-20677</v>
+      </c>
+      <c r="G17" s="15">
+        <v>48329</v>
+      </c>
+      <c r="H17" s="15">
+        <v>21541</v>
+      </c>
+      <c r="I17" s="15">
+        <v>17638</v>
+      </c>
+      <c r="J17" s="15">
+        <v>54950</v>
+      </c>
+      <c r="K17" s="15">
         <v>137227</v>
       </c>
-      <c r="E17" s="15">
+      <c r="L17" s="15">
         <v>230384</v>
       </c>
-      <c r="F17" s="15">
+      <c r="M17" s="15">
         <v>218315</v>
       </c>
-      <c r="G17" s="15">
+      <c r="N17" s="15">
         <v>315091</v>
       </c>
-      <c r="H17" s="15">
+      <c r="O17" s="15">
         <v>390395</v>
       </c>
-      <c r="I17" s="15">
+      <c r="P17" s="15">
         <v>445528</v>
       </c>
-      <c r="J17" s="15">
+      <c r="Q17" s="15">
         <v>601819</v>
       </c>
-      <c r="K17" s="15">
+      <c r="R17" s="15">
         <v>731916</v>
       </c>
-      <c r="L17" s="15">
+      <c r="S17" s="15">
         <v>1391084</v>
       </c>
-      <c r="M17" s="15">
+      <c r="T17" s="15">
         <v>1269118</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U17" s="15">
+        <v>1141569</v>
+      </c>
+      <c r="V17" s="15">
+        <v>1306732</v>
+      </c>
+      <c r="W17" s="15">
+        <v>2029554</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-12947</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-3075</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-6569</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-6045</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-4638</v>
+      </c>
+      <c r="I18" s="11">
+        <v>-4609</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-4337</v>
+      </c>
+      <c r="K18" s="11">
         <v>-9997</v>
       </c>
-      <c r="E18" s="11">
+      <c r="L18" s="11">
         <v>-9256</v>
       </c>
-      <c r="F18" s="11">
+      <c r="M18" s="11">
         <v>3011</v>
       </c>
-      <c r="G18" s="11">
+      <c r="N18" s="11">
         <v>-5655</v>
       </c>
-      <c r="H18" s="11">
+      <c r="O18" s="11">
         <v>-9807</v>
       </c>
-      <c r="I18" s="11">
+      <c r="P18" s="11">
         <v>-10592</v>
       </c>
-      <c r="J18" s="11">
+      <c r="Q18" s="11">
         <v>-27778</v>
       </c>
-      <c r="K18" s="11">
+      <c r="R18" s="11">
         <v>-16279</v>
       </c>
-      <c r="L18" s="11">
+      <c r="S18" s="11">
         <v>-94374</v>
       </c>
-      <c r="M18" s="11">
+      <c r="T18" s="11">
         <v>-117832</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U18" s="11">
+        <v>-108186</v>
+      </c>
+      <c r="V18" s="11">
+        <v>-42074</v>
+      </c>
+      <c r="W18" s="11">
+        <v>-287965</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>270</v>
+      </c>
+      <c r="E19" s="13">
+        <v>3384</v>
+      </c>
+      <c r="F19" s="13">
+        <v>-19</v>
+      </c>
+      <c r="G19" s="13">
+        <v>7053</v>
+      </c>
+      <c r="H19" s="13">
+        <v>12101</v>
+      </c>
+      <c r="I19" s="13">
+        <v>19209</v>
+      </c>
+      <c r="J19" s="13">
+        <v>4637</v>
+      </c>
+      <c r="K19" s="13">
         <v>202017</v>
       </c>
-      <c r="E19" s="13">
+      <c r="L19" s="13">
         <v>3926</v>
       </c>
-      <c r="F19" s="13">
+      <c r="M19" s="13">
         <v>-41280</v>
       </c>
-      <c r="G19" s="13">
+      <c r="N19" s="13">
         <v>14163</v>
       </c>
-      <c r="H19" s="13">
+      <c r="O19" s="13">
         <v>838</v>
       </c>
-      <c r="I19" s="13">
+      <c r="P19" s="13">
         <v>-15001</v>
       </c>
-      <c r="J19" s="13">
-        <v>142564</v>
-      </c>
-      <c r="K19" s="13">
+      <c r="Q19" s="13">
+        <v>159105</v>
+      </c>
+      <c r="R19" s="13">
         <v>19757</v>
       </c>
-      <c r="L19" s="13">
+      <c r="S19" s="13">
         <v>13826</v>
       </c>
-      <c r="M19" s="13">
+      <c r="T19" s="13">
         <v>60169</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U19" s="13">
+        <v>-43487</v>
+      </c>
+      <c r="V19" s="13">
+        <v>-6210</v>
+      </c>
+      <c r="W19" s="13">
+        <v>72952</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>2225</v>
+      </c>
+      <c r="E20" s="17">
+        <v>-43618</v>
+      </c>
+      <c r="F20" s="17">
+        <v>-27265</v>
+      </c>
+      <c r="G20" s="17">
+        <v>49337</v>
+      </c>
+      <c r="H20" s="17">
+        <v>29004</v>
+      </c>
+      <c r="I20" s="17">
+        <v>32238</v>
+      </c>
+      <c r="J20" s="17">
+        <v>55250</v>
+      </c>
+      <c r="K20" s="17">
         <v>329247</v>
       </c>
-      <c r="E20" s="17">
+      <c r="L20" s="17">
         <v>225054</v>
       </c>
-      <c r="F20" s="17">
+      <c r="M20" s="17">
         <v>180046</v>
       </c>
-      <c r="G20" s="17">
+      <c r="N20" s="17">
         <v>323599</v>
       </c>
-      <c r="H20" s="17">
+      <c r="O20" s="17">
         <v>381426</v>
       </c>
-      <c r="I20" s="17">
+      <c r="P20" s="17">
         <v>419935</v>
       </c>
-      <c r="J20" s="17">
-        <v>716605</v>
-      </c>
-      <c r="K20" s="17">
+      <c r="Q20" s="17">
+        <v>733146</v>
+      </c>
+      <c r="R20" s="17">
         <v>735394</v>
       </c>
-      <c r="L20" s="17">
+      <c r="S20" s="17">
         <v>1310536</v>
       </c>
-      <c r="M20" s="17">
+      <c r="T20" s="17">
         <v>1211455</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U20" s="17">
+        <v>989896</v>
+      </c>
+      <c r="V20" s="17">
+        <v>1258448</v>
+      </c>
+      <c r="W20" s="17">
+        <v>1814541</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
+        <v>-15548</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0</v>
+      </c>
+      <c r="K21" s="13">
         <v>-71496</v>
       </c>
-      <c r="E21" s="13">
+      <c r="L21" s="13">
         <v>71496</v>
       </c>
-      <c r="F21" s="13">
+      <c r="M21" s="13">
         <v>-85675</v>
       </c>
-      <c r="G21" s="13">
-        <v>0</v>
-      </c>
-      <c r="H21" s="13">
+      <c r="N21" s="13">
+        <v>0</v>
+      </c>
+      <c r="O21" s="13">
         <v>-110831</v>
       </c>
-      <c r="I21" s="13">
+      <c r="P21" s="13">
         <v>-52878</v>
       </c>
-      <c r="J21" s="13">
-        <v>147193</v>
-      </c>
-      <c r="K21" s="13">
+      <c r="Q21" s="13">
+        <v>-45716</v>
+      </c>
+      <c r="R21" s="13">
         <v>-73539</v>
       </c>
-      <c r="L21" s="13">
+      <c r="S21" s="13">
         <v>-2095</v>
       </c>
-      <c r="M21" s="13">
+      <c r="T21" s="13">
         <v>-36990</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U21" s="13">
+        <v>92011</v>
+      </c>
+      <c r="V21" s="13">
+        <v>-5702</v>
+      </c>
+      <c r="W21" s="13">
+        <v>5702</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>2225</v>
+      </c>
+      <c r="E22" s="17">
+        <v>-43618</v>
+      </c>
+      <c r="F22" s="17">
+        <v>-27265</v>
+      </c>
+      <c r="G22" s="17">
+        <v>49337</v>
+      </c>
+      <c r="H22" s="17">
+        <v>29004</v>
+      </c>
+      <c r="I22" s="17">
+        <v>16690</v>
+      </c>
+      <c r="J22" s="17">
+        <v>55250</v>
+      </c>
+      <c r="K22" s="17">
         <v>257751</v>
       </c>
-      <c r="E22" s="17">
+      <c r="L22" s="17">
         <v>296550</v>
       </c>
-      <c r="F22" s="17">
+      <c r="M22" s="17">
         <v>94371</v>
       </c>
-      <c r="G22" s="17">
+      <c r="N22" s="17">
         <v>323599</v>
       </c>
-      <c r="H22" s="17">
+      <c r="O22" s="17">
         <v>270595</v>
       </c>
-      <c r="I22" s="17">
+      <c r="P22" s="17">
         <v>367057</v>
       </c>
-      <c r="J22" s="17">
-        <v>863798</v>
-      </c>
-      <c r="K22" s="17">
+      <c r="Q22" s="17">
+        <v>687430</v>
+      </c>
+      <c r="R22" s="17">
         <v>661855</v>
       </c>
-      <c r="L22" s="17">
+      <c r="S22" s="17">
         <v>1308441</v>
       </c>
-      <c r="M22" s="17">
+      <c r="T22" s="17">
         <v>1174465</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U22" s="17">
+        <v>1081907</v>
+      </c>
+      <c r="V22" s="17">
+        <v>1252746</v>
+      </c>
+      <c r="W22" s="17">
+        <v>1820243</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1289,86 +1852,176 @@
       <c r="M23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0</v>
+      </c>
+      <c r="S23" s="13">
+        <v>0</v>
+      </c>
+      <c r="T23" s="13">
+        <v>0</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0</v>
+      </c>
+      <c r="V23" s="13">
+        <v>0</v>
+      </c>
+      <c r="W23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>2225</v>
+      </c>
+      <c r="E24" s="17">
+        <v>-43618</v>
+      </c>
+      <c r="F24" s="17">
+        <v>-27265</v>
+      </c>
+      <c r="G24" s="17">
+        <v>49337</v>
+      </c>
+      <c r="H24" s="17">
+        <v>29004</v>
+      </c>
+      <c r="I24" s="17">
+        <v>16690</v>
+      </c>
+      <c r="J24" s="17">
+        <v>55250</v>
+      </c>
+      <c r="K24" s="17">
         <v>257751</v>
       </c>
-      <c r="E24" s="17">
+      <c r="L24" s="17">
         <v>296550</v>
       </c>
-      <c r="F24" s="17">
+      <c r="M24" s="17">
         <v>94371</v>
       </c>
-      <c r="G24" s="17">
+      <c r="N24" s="17">
         <v>323599</v>
       </c>
-      <c r="H24" s="17">
+      <c r="O24" s="17">
         <v>270595</v>
       </c>
-      <c r="I24" s="17">
+      <c r="P24" s="17">
         <v>367057</v>
       </c>
-      <c r="J24" s="17">
-        <v>863798</v>
-      </c>
-      <c r="K24" s="17">
+      <c r="Q24" s="17">
+        <v>687430</v>
+      </c>
+      <c r="R24" s="17">
         <v>661855</v>
       </c>
-      <c r="L24" s="17">
+      <c r="S24" s="17">
         <v>1308441</v>
       </c>
-      <c r="M24" s="17">
+      <c r="T24" s="17">
         <v>1174465</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U24" s="17">
+        <v>1081907</v>
+      </c>
+      <c r="V24" s="17">
+        <v>1252746</v>
+      </c>
+      <c r="W24" s="17">
+        <v>1820243</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>12</v>
+      </c>
+      <c r="E25" s="13">
+        <v>-30</v>
+      </c>
+      <c r="F25" s="13">
+        <v>-19</v>
+      </c>
+      <c r="G25" s="13">
+        <v>274</v>
+      </c>
+      <c r="H25" s="13">
+        <v>161</v>
+      </c>
+      <c r="I25" s="13">
+        <v>11</v>
+      </c>
+      <c r="J25" s="13">
+        <v>38</v>
+      </c>
+      <c r="K25" s="13">
         <v>175</v>
       </c>
-      <c r="E25" s="13">
+      <c r="L25" s="13">
         <v>202</v>
       </c>
-      <c r="F25" s="13">
+      <c r="M25" s="13">
         <v>64</v>
       </c>
-      <c r="G25" s="13">
+      <c r="N25" s="13">
         <v>63</v>
       </c>
-      <c r="H25" s="13">
+      <c r="O25" s="13">
         <v>53</v>
       </c>
-      <c r="I25" s="13">
+      <c r="P25" s="13">
         <v>71</v>
       </c>
-      <c r="J25" s="13">
-        <v>168</v>
-      </c>
-      <c r="K25" s="13">
+      <c r="Q25" s="13">
+        <v>134</v>
+      </c>
+      <c r="R25" s="13">
         <v>129</v>
       </c>
-      <c r="L25" s="13">
+      <c r="S25" s="13">
         <v>255</v>
       </c>
-      <c r="M25" s="13">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="T25" s="13">
+        <v>229</v>
+      </c>
+      <c r="U25" s="13">
+        <v>210</v>
+      </c>
+      <c r="V25" s="13">
+        <v>244</v>
+      </c>
+      <c r="W25" s="13">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>1468924</v>
+        <v>180000</v>
       </c>
       <c r="E26" s="11">
         <v>1468924</v>
@@ -1377,64 +2030,124 @@
         <v>1468924</v>
       </c>
       <c r="G26" s="11">
+        <v>180000</v>
+      </c>
+      <c r="H26" s="11">
+        <v>180000</v>
+      </c>
+      <c r="I26" s="11">
+        <v>1468924</v>
+      </c>
+      <c r="J26" s="11">
+        <v>1468924</v>
+      </c>
+      <c r="K26" s="11">
+        <v>1468924</v>
+      </c>
+      <c r="L26" s="11">
+        <v>1468924</v>
+      </c>
+      <c r="M26" s="11">
+        <v>1468924</v>
+      </c>
+      <c r="N26" s="11">
         <v>5141234</v>
       </c>
-      <c r="H26" s="11">
+      <c r="O26" s="11">
         <v>5141234</v>
       </c>
-      <c r="I26" s="11">
+      <c r="P26" s="11">
         <v>5141234</v>
       </c>
-      <c r="J26" s="11">
+      <c r="Q26" s="11">
         <v>5141234</v>
       </c>
-      <c r="K26" s="11">
+      <c r="R26" s="11">
         <v>5141234</v>
       </c>
-      <c r="L26" s="11">
+      <c r="S26" s="11">
         <v>5141234</v>
       </c>
-      <c r="M26" s="11">
+      <c r="T26" s="11">
         <v>5141234</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U26" s="11">
+        <v>5141234</v>
+      </c>
+      <c r="V26" s="11">
+        <v>5141234</v>
+      </c>
+      <c r="W26" s="11">
+        <v>5141234</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>0</v>
+      </c>
+      <c r="E27" s="13">
+        <v>-8</v>
+      </c>
+      <c r="F27" s="13">
+        <v>-5</v>
+      </c>
+      <c r="G27" s="13">
+        <v>10</v>
+      </c>
+      <c r="H27" s="13">
+        <v>6</v>
+      </c>
+      <c r="I27" s="13">
+        <v>3</v>
+      </c>
+      <c r="J27" s="13">
+        <v>11</v>
+      </c>
+      <c r="K27" s="13">
         <v>50</v>
       </c>
-      <c r="E27" s="13">
+      <c r="L27" s="13">
         <v>58</v>
       </c>
-      <c r="F27" s="13">
+      <c r="M27" s="13">
         <v>18</v>
       </c>
-      <c r="G27" s="13">
+      <c r="N27" s="13">
         <v>63</v>
       </c>
-      <c r="H27" s="13">
+      <c r="O27" s="13">
         <v>53</v>
       </c>
-      <c r="I27" s="13">
+      <c r="P27" s="13">
         <v>71</v>
       </c>
-      <c r="J27" s="13">
-        <v>168</v>
-      </c>
-      <c r="K27" s="13">
+      <c r="Q27" s="13">
+        <v>134</v>
+      </c>
+      <c r="R27" s="13">
         <v>129</v>
       </c>
-      <c r="L27" s="13">
+      <c r="S27" s="13">
         <v>255</v>
       </c>
-      <c r="M27" s="13">
+      <c r="T27" s="13">
         <v>228</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U27" s="13">
+        <v>210</v>
+      </c>
+      <c r="V27" s="13">
+        <v>244</v>
+      </c>
+      <c r="W27" s="13">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1447,6 +2160,16 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
